--- a/Arquivos Externos/Sprint 2019 004 Projetos.xlsx
+++ b/Arquivos Externos/Sprint 2019 004 Projetos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R\RGitRep\Arquivos Externos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F131C43B-157A-40C9-BE2E-4D88C61CE87C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD42D3FE-C2CB-4873-BA83-0E65991B6DF1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{563DE04D-F3F0-4148-80B6-2A803ABAAACF}"/>
   </bookViews>
@@ -162,15 +162,67 @@
     <r>
       <rPr>
         <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Igor</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Nelson</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t>Javert</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Vithor</t>
     </r>
-  </si>
-  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -179,6 +231,87 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t xml:space="preserve">Laercio </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">/ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Igor </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Paulo</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Nelson</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Vithor</t>
     </r>
     <r>
@@ -199,29 +332,50 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Laercio</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="4"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Nelson</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> / </t>
+      <t>Paulo</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Vithor </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Laercio </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -233,28 +387,6 @@
       </rPr>
       <t>Igor</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="4"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Nelson</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> / </t>
-    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -263,10 +395,17 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Javert</t>
-    </r>
-  </si>
-  <si>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -275,47 +414,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Vithor</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> / </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Laercio </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">/ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Igor</t>
+      <t xml:space="preserve"> Paulo</t>
     </r>
   </si>
 </sst>
@@ -388,7 +487,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -586,11 +685,53 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -626,6 +767,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -940,44 +1088,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2F540E8-28BA-4D3B-A05D-EE0A8C0972F3}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.5546875" style="2" customWidth="1"/>
     <col min="2" max="2" width="34" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.33203125" customWidth="1"/>
-    <col min="5" max="5" width="3.6640625" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" customWidth="1"/>
+    <col min="5" max="5" width="6.33203125" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="3.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="7.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="7.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="8"/>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
     </row>
-    <row r="2" spans="1:5" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="18">
+      <c r="C2" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="25">
+        <v>13</v>
+      </c>
+      <c r="E2" s="18">
         <v>8</v>
       </c>
-      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
     </row>
-    <row r="3" spans="1:5" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>13</v>
       </c>
@@ -985,14 +1138,17 @@
         <v>2</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="19">
+        <v>21</v>
+      </c>
+      <c r="D3" s="26">
         <v>5</v>
       </c>
-      <c r="E3" s="9"/>
+      <c r="E3" s="19">
+        <v>5</v>
+      </c>
+      <c r="F3" s="9"/>
     </row>
-    <row r="4" spans="1:5" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>13</v>
       </c>
@@ -1000,14 +1156,17 @@
         <v>3</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="21">
+        <v>22</v>
+      </c>
+      <c r="D4" s="27">
+        <v>3</v>
+      </c>
+      <c r="E4" s="21">
         <v>2</v>
       </c>
-      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
     </row>
-    <row r="5" spans="1:5" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
@@ -1015,14 +1174,17 @@
         <v>4</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="22">
+        <v>19</v>
+      </c>
+      <c r="D5" s="28">
         <v>8</v>
       </c>
-      <c r="E5" s="9"/>
+      <c r="E5" s="22">
+        <v>8</v>
+      </c>
+      <c r="F5" s="9"/>
     </row>
-    <row r="6" spans="1:5" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>13</v>
       </c>
@@ -1030,14 +1192,17 @@
         <v>5</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="20">
+        <v>19</v>
+      </c>
+      <c r="D6" s="26">
         <v>8</v>
       </c>
-      <c r="E6" s="9"/>
+      <c r="E6" s="20">
+        <v>8</v>
+      </c>
+      <c r="F6" s="9"/>
     </row>
-    <row r="7" spans="1:5" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
@@ -1045,14 +1210,17 @@
         <v>6</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="24">
+        <v>19</v>
+      </c>
+      <c r="D7" s="27">
         <v>5</v>
       </c>
-      <c r="E7" s="9"/>
+      <c r="E7" s="24">
+        <v>5</v>
+      </c>
+      <c r="F7" s="9"/>
     </row>
-    <row r="8" spans="1:5" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
@@ -1062,12 +1230,15 @@
       <c r="C8" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="23">
+      <c r="D8" s="29">
         <v>3</v>
       </c>
-      <c r="E8" s="9"/>
+      <c r="E8" s="23">
+        <v>3</v>
+      </c>
+      <c r="F8" s="9"/>
     </row>
-    <row r="9" spans="1:5" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>13</v>
       </c>
@@ -1077,12 +1248,15 @@
       <c r="C9" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9" s="30">
+        <v>2</v>
+      </c>
+      <c r="E9" s="19">
         <v>1</v>
       </c>
-      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
     </row>
-    <row r="10" spans="1:5" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>13</v>
       </c>
@@ -1092,12 +1266,15 @@
       <c r="C10" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="21">
+      <c r="D10" s="31">
+        <v>5</v>
+      </c>
+      <c r="E10" s="21">
         <v>3</v>
       </c>
-      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
     </row>
-    <row r="11" spans="1:5" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
@@ -1107,12 +1284,15 @@
       <c r="C11" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="23">
+      <c r="D11" s="29">
+        <v>3</v>
+      </c>
+      <c r="E11" s="23">
         <v>2</v>
       </c>
-      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
     </row>
-    <row r="12" spans="1:5" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>13</v>
       </c>
@@ -1120,14 +1300,17 @@
         <v>8</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="19">
+        <v>20</v>
+      </c>
+      <c r="D12" s="30">
+        <v>5</v>
+      </c>
+      <c r="E12" s="19">
         <v>3</v>
       </c>
-      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
     </row>
-    <row r="13" spans="1:5" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
         <v>13</v>
       </c>
@@ -1137,20 +1320,27 @@
       <c r="C13" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="21">
+      <c r="D13" s="31">
         <v>5</v>
       </c>
-      <c r="E13" s="9"/>
+      <c r="E13" s="21">
+        <v>5</v>
+      </c>
+      <c r="F13" s="9"/>
     </row>
-    <row r="14" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
       <c r="D14" s="17">
         <f>SUM(D2:D13)</f>
+        <v>65</v>
+      </c>
+      <c r="E14" s="17">
+        <f>SUM(E2:E13)</f>
         <v>53</v>
       </c>
-      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
